--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\GradPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjboh\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB205C8-D7F7-4E6C-A36C-5315EA5F5312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A482C73-0B2F-45DF-B34A-CAA991987C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -265,10 +265,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,14 +299,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1013,7 @@
       <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1128,6 +1139,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjboh\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A482C73-0B2F-45DF-B34A-CAA991987C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065C959-72FA-46CE-8E1C-E195B0BFBFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Scala site</t>
   </si>
   <si>
-    <t>RB</t>
-  </si>
-  <si>
     <t>MC</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Reflection + Planning</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Operational Semantics 1</t>
   </si>
   <si>
@@ -138,30 +129,9 @@
     <t>MC = Michael Coblenz</t>
   </si>
   <si>
-    <t>KY = Katherine Ye</t>
-  </si>
-  <si>
     <t>Process Calculus</t>
   </si>
   <si>
-    <t>Natural Inform</t>
-  </si>
-  <si>
-    <t>Twine</t>
-  </si>
-  <si>
-    <t>Penrose</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Critical Code Studies 1</t>
-  </si>
-  <si>
-    <t>Critical Code Studies 2</t>
-  </si>
-  <si>
     <t>KY</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>Lecture#</t>
   </si>
   <si>
-    <t>RB, maybe MC</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -249,16 +216,52 @@
     <t>Scala 2: Fastparse</t>
   </si>
   <si>
-    <t>Scala 3: AST + Elab</t>
-  </si>
-  <si>
     <t>Scala 4: Interpreters</t>
   </si>
   <si>
     <t>User Studies 3</t>
   </si>
   <si>
-    <t>fastparse site</t>
+    <t>KY = Kai Ye</t>
+  </si>
+  <si>
+    <t>move to</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Implementation Skills</t>
+  </si>
+  <si>
+    <t>User Studies</t>
+  </si>
+  <si>
+    <t>PL Theory</t>
+  </si>
+  <si>
+    <t>Critical PL Studies</t>
+  </si>
+  <si>
+    <t>Scala 3: Syntax Trees</t>
+  </si>
+  <si>
+    <t>Inform: Natural Language PLs</t>
+  </si>
+  <si>
+    <t>Twine: Antiracist Action + Interactive Fiction</t>
+  </si>
+  <si>
+    <t>Penrose: Coding Beautiful Diagrams</t>
+  </si>
+  <si>
+    <t>Processing: Coding for Fine Arts</t>
+  </si>
+  <si>
+    <t>Critical Code Studies 1: Intersectionality</t>
+  </si>
+  <si>
+    <t>Critical Code Studies 2: Disability</t>
   </si>
 </sst>
 </file>
@@ -588,560 +591,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
         <v>44573</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
         <v>44578</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
         <v>44580</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1">
         <v>44585</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
         <v>44587</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
         <v>44592</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1">
         <v>44594</v>
       </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1">
         <v>44599</v>
       </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
         <v>44601</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
         <v>44606</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
         <v>44608</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1">
         <v>44613</v>
       </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
         <v>44620</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
         <v>44622</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
         <v>44634</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
         <v>44636</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
         <v>44641</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
         <v>44643</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
         <v>44650</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
         <v>44655</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
       <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1">
         <v>44657</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
       <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1">
         <v>44662</v>
       </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
       <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
         <v>44664</v>
       </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
       <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
         <v>44669</v>
       </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1">
         <v>44671</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
       <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1">
         <v>44676</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
         <v>44678</v>
       </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
       <c r="E28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
         <v>44683</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
         <v>59</v>
       </c>
-      <c r="G39" t="s">
-        <v>70</v>
-      </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjboh\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065C959-72FA-46CE-8E1C-E195B0BFBFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA3EE6-C239-4429-837C-1652E1376E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Project Celebration</t>
   </si>
   <si>
-    <t>Project due</t>
-  </si>
-  <si>
     <t>CP 0</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>RR = Ram Raghunathan</t>
   </si>
   <si>
-    <t>Lecture#</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -262,6 +256,12 @@
   </si>
   <si>
     <t>Critical Code Studies 2: Disability</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -591,26 +591,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -628,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -636,496 +637,493 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>44573</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44578</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>44580</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>44585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44587</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>44580</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
-        <v>44592</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44587</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44599</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>44601</v>
+        <v>44592</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
-        <v>44606</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
-        <v>44613</v>
+        <v>44599</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
-        <v>44620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44622</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>44634</v>
+        <v>44606</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44641</v>
+        <v>44608</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
-        <v>44643</v>
+        <v>44613</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44650</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>44655</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>44657</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44662</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>44664</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" t="s">
-        <v>41</v>
+        <v>44634</v>
+      </c>
+      <c r="P24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>44669</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44671</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>42</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
       <c r="C27" s="1">
-        <v>44676</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44650</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C32" s="1">
+        <v>44655</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44657</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44662</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44664</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44669</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44671</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44676</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1">
         <v>44678</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E42" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C44" s="1">
         <v>44683</v>
       </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="P44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>48</v>
       </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" t="s">
-        <v>60</v>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
+    <hyperlink ref="H30" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjboh\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA3EE6-C239-4429-837C-1652E1376E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35808B7-B5B9-4016-B5A6-9B8EAE2633C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16470" yWindow="405" windowWidth="11985" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,20 +1031,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>28</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C43" s="1">
         <v>44683</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D43" t="s">
         <v>78</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P43" t="s">
         <v>5</v>
       </c>
     </row>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjboh\Documents\GitHub\pl-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35808B7-B5B9-4016-B5A6-9B8EAE2633C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF38032-EDD1-41BF-8569-D763004D6447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16470" yWindow="405" windowWidth="11985" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4536" sheetId="2" r:id="rId1"/>
+    <sheet name="536" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -262,6 +263,48 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Rust 1: Setup + Vocab</t>
+  </si>
+  <si>
+    <t>Rust 2: Syntax Trees</t>
+  </si>
+  <si>
+    <t>Rust 3: Interpreters</t>
+  </si>
+  <si>
+    <t>Operational Semantics</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Critical Code Studies</t>
+  </si>
+  <si>
+    <t>Visual Arts</t>
+  </si>
+  <si>
+    <t>Interactive Fiction</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16204405/</t>
   </si>
 </sst>
 </file>
@@ -590,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8144DEB0-8C38-452D-8D42-359E137E414A}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,6 +1166,404 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="H30" r:id="rId1" xr:uid="{A8010578-CFBC-485F-B48A-37BB2FC2A835}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45163</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45202</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45205</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="P24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="P43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="P44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
     <hyperlink ref="H30" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF38032-EDD1-41BF-8569-D763004D6447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF8FD5-A71A-4F88-9380-62DD871B1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4536" sheetId="2" r:id="rId1"/>
-    <sheet name="536" sheetId="1" r:id="rId2"/>
+    <sheet name="536" sheetId="2" r:id="rId1"/>
+    <sheet name="4536!" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -46,78 +46,24 @@
     <t>Project Celebration</t>
   </si>
   <si>
-    <t>CP 0</t>
-  </si>
-  <si>
-    <t>CP 1</t>
-  </si>
-  <si>
     <t>CP 2</t>
   </si>
   <si>
-    <t>CP 3</t>
-  </si>
-  <si>
-    <t>CP 4</t>
-  </si>
-  <si>
-    <t>CP 5</t>
-  </si>
-  <si>
     <t>Course Intro</t>
   </si>
   <si>
-    <t>Pick Project Teams</t>
-  </si>
-  <si>
-    <t>What is a Language?</t>
-  </si>
-  <si>
     <t>Regular Expressions</t>
   </si>
   <si>
     <t>Context Free Grammars</t>
   </si>
   <si>
-    <t>DD</t>
-  </si>
-  <si>
     <t>Scala site</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>User Studies 1</t>
-  </si>
-  <si>
-    <t>User Studies 2</t>
-  </si>
-  <si>
-    <t>Do the Study</t>
-  </si>
-  <si>
-    <t>Reflection + Planning</t>
-  </si>
-  <si>
-    <t>Operational Semantics 1</t>
-  </si>
-  <si>
-    <t>Operational Semantics 2</t>
-  </si>
-  <si>
-    <t>Type Systems 1</t>
-  </si>
-  <si>
-    <t>Type Systems 2</t>
-  </si>
-  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Parallel Functional Programs</t>
-  </si>
-  <si>
     <t>RB = Rose Bohrer</t>
   </si>
   <si>
@@ -127,24 +73,12 @@
     <t>MC = Michael Coblenz</t>
   </si>
   <si>
-    <t>Process Calculus</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/doi/pdf/10.1145/3334480.3375150</t>
   </si>
   <si>
     <t>https://arxiv.org/pdf/2201.10643.pdf</t>
   </si>
   <si>
-    <t>MB</t>
-  </si>
-  <si>
     <t>MB = Margaret Burnett</t>
   </si>
   <si>
@@ -154,21 +88,12 @@
     <t>https://dl.acm.org/doi/pdf/10.1145/3393914.3395885</t>
   </si>
   <si>
-    <t>AT</t>
-  </si>
-  <si>
     <t>AT = Alexandra To</t>
   </si>
   <si>
-    <t>GN</t>
-  </si>
-  <si>
     <t>http://www.ifarchive.org/if-archive/books/IFTheoryBook.pdf#page=147</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>GN = Graham Nelson</t>
   </si>
   <si>
@@ -178,9 +103,6 @@
     <t>https://link.springer.com/content/pdf/10.1007/s00146-006-0050-9.pdf?pdf=button</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>CR = Casey Reas</t>
   </si>
   <si>
@@ -193,9 +115,6 @@
     <t>https://dl.acm.org/doi/pdf/10.1145/3022670.2951935</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>RR = Ram Raghunathan</t>
   </si>
   <si>
@@ -205,18 +124,6 @@
     <t>Scala?</t>
   </si>
   <si>
-    <t>Scala 1: Setup+Vocab</t>
-  </si>
-  <si>
-    <t>Scala 2: Fastparse</t>
-  </si>
-  <si>
-    <t>Scala 4: Interpreters</t>
-  </si>
-  <si>
-    <t>User Studies 3</t>
-  </si>
-  <si>
     <t>KY = Kai Ye</t>
   </si>
   <si>
@@ -238,27 +145,6 @@
     <t>Critical PL Studies</t>
   </si>
   <si>
-    <t>Scala 3: Syntax Trees</t>
-  </si>
-  <si>
-    <t>Inform: Natural Language PLs</t>
-  </si>
-  <si>
-    <t>Twine: Antiracist Action + Interactive Fiction</t>
-  </si>
-  <si>
-    <t>Penrose: Coding Beautiful Diagrams</t>
-  </si>
-  <si>
-    <t>Processing: Coding for Fine Arts</t>
-  </si>
-  <si>
-    <t>Critical Code Studies 1: Intersectionality</t>
-  </si>
-  <si>
-    <t>Critical Code Studies 2: Disability</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -280,31 +166,112 @@
     <t>A5</t>
   </si>
   <si>
-    <t>Rust 1: Setup + Vocab</t>
-  </si>
-  <si>
-    <t>Rust 2: Syntax Trees</t>
-  </si>
-  <si>
-    <t>Rust 3: Interpreters</t>
-  </si>
-  <si>
-    <t>Operational Semantics</t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
-    <t>Critical Code Studies</t>
-  </si>
-  <si>
-    <t>Visual Arts</t>
-  </si>
-  <si>
-    <t>Interactive Fiction</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/16204405/</t>
+    <t>Rust 1</t>
+  </si>
+  <si>
+    <t>RE+CFG</t>
+  </si>
+  <si>
+    <t>AST+PEG</t>
+  </si>
+  <si>
+    <t>Evaluators</t>
+  </si>
+  <si>
+    <t>OpSem</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Gender+Disability</t>
+  </si>
+  <si>
+    <t>Media+Play</t>
+  </si>
+  <si>
+    <t>Natural Language</t>
+  </si>
+  <si>
+    <t>Experiment Design</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Rust 2</t>
+  </si>
+  <si>
+    <t>PEGs</t>
+  </si>
+  <si>
+    <t>Interp</t>
+  </si>
+  <si>
+    <t>OpSem1</t>
+  </si>
+  <si>
+    <t>OpSem2</t>
+  </si>
+  <si>
+    <t>Types1</t>
+  </si>
+  <si>
+    <t>Types2</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Design 1</t>
+  </si>
+  <si>
+    <t>Design 2</t>
+  </si>
+  <si>
+    <t>Design 3</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Do Study</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Diagrams</t>
+  </si>
+  <si>
+    <t>ADTs+ASTs</t>
+  </si>
+  <si>
+    <t>Parallel + Cost Sem</t>
+  </si>
+  <si>
+    <t>Proc Calc</t>
   </si>
 </sst>
 </file>
@@ -636,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8144DEB0-8C38-452D-8D42-359E137E414A}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -672,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -680,24 +647,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
-        <v>44573</v>
+        <v>45166</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44578</v>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45168</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -705,24 +672,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
-        <v>44580</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44585</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45176</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -730,30 +694,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>44587</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44592</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45182</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -761,24 +716,21 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1">
-        <v>44594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44599</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45189</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -786,27 +738,26 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1">
-        <v>44601</v>
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45196</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44606</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
       <c r="P16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -814,30 +765,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1">
-        <v>44608</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44613</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45203</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -845,10 +787,10 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
-        <v>44620</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -856,10 +798,10 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1">
-        <v>44622</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -867,13 +809,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1">
-        <v>44634</v>
+        <v>45222</v>
       </c>
       <c r="P24" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -881,10 +823,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1">
-        <v>44636</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -892,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
-        <v>44641</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -903,13 +845,10 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -917,33 +856,22 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1">
-        <v>44650</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>45238</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1">
-        <v>44655</v>
-      </c>
-      <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" t="s">
-        <v>54</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -951,19 +879,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1">
-        <v>44657</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" t="s">
-        <v>69</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -971,36 +890,24 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1">
-        <v>44662</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s">
-        <v>36</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1">
-        <v>44664</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" t="s">
-        <v>40</v>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45257</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -1008,36 +915,21 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
-        <v>44669</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="1">
-        <v>44671</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s">
-        <v>41</v>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45264</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -1045,131 +937,113 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1">
-        <v>44676</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44678</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" t="s">
-        <v>28</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
-        <v>44683</v>
-      </c>
-      <c r="D43" t="s">
-        <v>78</v>
+        <v>45271</v>
       </c>
       <c r="P43" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45273</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H30" r:id="rId1" xr:uid="{A8010578-CFBC-485F-B48A-37BB2FC2A835}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1177,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1066,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1213,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1221,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>45163</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1235,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>45167</v>
@@ -1246,13 +1120,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>45170</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1260,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>45174</v>
@@ -1271,16 +1145,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>45177</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1288,13 +1162,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>45181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1302,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>45184</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1316,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1">
         <v>45188</v>
@@ -1327,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1">
         <v>45195</v>
@@ -1338,19 +1209,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
         <v>45198</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1358,13 +1226,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>45202</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1372,13 +1237,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>45205</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
         <v>45209</v>
@@ -1397,19 +1259,19 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>45212</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="P24" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1424,63 +1286,63 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="H30" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P33" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="P43" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
@@ -1492,74 +1354,74 @@
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF8FD5-A71A-4F88-9380-62DD871B1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4CBEE8-2AD8-408F-9B90-00BAC7038E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="536" sheetId="2" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -127,21 +124,6 @@
     <t>KY = Kai Ye</t>
   </si>
   <si>
-    <t>move to</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Implementation Skills</t>
-  </si>
-  <si>
-    <t>User Studies</t>
-  </si>
-  <si>
-    <t>PL Theory</t>
-  </si>
-  <si>
     <t>Critical PL Studies</t>
   </si>
   <si>
@@ -208,9 +190,6 @@
     <t>Natural Language</t>
   </si>
   <si>
-    <t>Experiment Design</t>
-  </si>
-  <si>
     <t>Intro</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>PEGs</t>
   </si>
   <si>
-    <t>Interp</t>
-  </si>
-  <si>
     <t>OpSem1</t>
   </si>
   <si>
@@ -247,9 +223,6 @@
     <t>Design 3</t>
   </si>
   <si>
-    <t>NLP</t>
-  </si>
-  <si>
     <t>Do Study</t>
   </si>
   <si>
@@ -272,6 +245,33 @@
   </si>
   <si>
     <t>Proc Calc</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Read Ch.</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>15,16</t>
   </si>
 </sst>
 </file>
@@ -316,10 +316,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -601,444 +608,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8144DEB0-8C38-452D-8D42-359E137E414A}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>45166</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>45168</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45175</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>45175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45180</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45182</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45187</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45194</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45196</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
-        <v>45189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45203</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45210</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45222</v>
+      </c>
+      <c r="E16">
         <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45224</v>
+      </c>
+      <c r="E17">
         <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45201</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45229</v>
+      </c>
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45203</v>
-      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45231</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45238</v>
+      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45243</v>
+      </c>
+      <c r="E21">
         <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45208</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45245</v>
+      </c>
+      <c r="E22">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45210</v>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45250</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1">
-        <v>45222</v>
-      </c>
-      <c r="P24" t="s">
-        <v>37</v>
+        <v>45257</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1">
-        <v>45224</v>
+        <v>45259</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45264</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>45229</v>
+        <v>45266</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>45271</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45238</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33">
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1">
-        <v>45259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="1">
-        <v>45271</v>
-      </c>
-      <c r="P43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="1">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+      <c r="G72" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="I72" t="s">
         <v>30</v>
-      </c>
-      <c r="I85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1049,384 +1133,644 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>45163</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>45167</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>45170</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45163</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45167</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>45174</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45170</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>45177</v>
       </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45174</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45177</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>45181</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45181</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>45184</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45184</v>
+      </c>
+      <c r="J11" s="4">
+        <v>9</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45188</v>
+      </c>
+      <c r="J12" s="4">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <v>45188</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45195</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45198</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>45195</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45202</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>45198</v>
       </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45205</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45209</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
         <v>45202</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45212</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <v>45205</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
         <v>45209</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>45212</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
-      <c r="P24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
-      <c r="H30" s="2" t="s">
+      <c r="D30" s="1"/>
+      <c r="I30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="I32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="H32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="L36" t="s">
+      <c r="D35" s="1"/>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="I40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="H37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="H38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
-      <c r="P43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="Q43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
-      <c r="P44" t="s">
-        <v>5</v>
+      <c r="D44" s="1"/>
+      <c r="Q44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+      <c r="J85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>22</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" t="s">
         <v>30</v>
-      </c>
-      <c r="I85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H30" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
+    <hyperlink ref="I30" r:id="rId1" xr:uid="{BBAC7FC1-2112-450B-BAEB-2BE025889A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4CBEE8-2AD8-408F-9B90-00BAC7038E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1DEFC-A6A6-4890-81BA-5AFC9BB2E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>15,16</t>
+  </si>
+  <si>
+    <t>DO STUDY TODAY</t>
   </si>
 </sst>
 </file>
@@ -316,14 +319,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1136,7 +1135,7 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,12 +1180,9 @@
       <c r="C2" s="1">
         <v>45163</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1198,7 +1194,7 @@
       <c r="C4" s="1">
         <v>45167</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
@@ -1227,7 +1223,7 @@
       <c r="C5" s="1">
         <v>45170</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>77</v>
       </c>
       <c r="E5" t="s">
@@ -1242,13 +1238,12 @@
       <c r="I5" s="1">
         <v>45163</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
       <c r="G6">
         <v>2</v>
       </c>
@@ -1258,10 +1253,10 @@
       <c r="I6" s="1">
         <v>45167</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>3</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1273,7 +1268,7 @@
       <c r="C7" s="1">
         <v>45174</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>78</v>
       </c>
       <c r="G7">
@@ -1285,10 +1280,10 @@
       <c r="I7" s="1">
         <v>45170</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1302,7 +1297,7 @@
       <c r="C8" s="1">
         <v>45177</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -1317,13 +1312,12 @@
       <c r="I8" s="1">
         <v>45174</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
       <c r="G9">
         <v>5</v>
       </c>
@@ -1333,10 +1327,10 @@
       <c r="I9" s="1">
         <v>45177</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1350,7 +1344,7 @@
       <c r="C10" s="1">
         <v>45181</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>8</v>
       </c>
       <c r="G10">
@@ -1362,10 +1356,10 @@
       <c r="I10" s="1">
         <v>45181</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>8</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1377,7 +1371,7 @@
       <c r="C11" s="1">
         <v>45184</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -1392,15 +1386,14 @@
       <c r="I11" s="1">
         <v>45184</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>9</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
       <c r="G12">
         <v>8</v>
       </c>
@@ -1410,10 +1403,10 @@
       <c r="I12" s="1">
         <v>45188</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>10</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1425,7 +1418,7 @@
       <c r="C13" s="1">
         <v>45188</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>10</v>
       </c>
       <c r="G13">
@@ -1437,13 +1430,12 @@
       <c r="I13" s="1">
         <v>45195</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
       <c r="G14">
         <v>10</v>
       </c>
@@ -1453,10 +1445,10 @@
       <c r="I14" s="1">
         <v>45198</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>17</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1470,7 +1462,7 @@
       <c r="C15" s="1">
         <v>45195</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>79</v>
       </c>
       <c r="G15">
@@ -1482,22 +1474,22 @@
       <c r="I15" s="1">
         <v>45202</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>45198</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>17</v>
       </c>
       <c r="E16" t="s">
@@ -1512,13 +1504,12 @@
       <c r="I16" s="1">
         <v>45205</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
       <c r="G17">
         <v>13</v>
       </c>
@@ -1528,8 +1519,7 @@
       <c r="I17" s="1">
         <v>45209</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1538,13 +1528,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>45202</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1555,7 +1548,6 @@
       <c r="I18" s="1">
         <v>45212</v>
       </c>
-      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1567,12 +1559,9 @@
       <c r="C19" s="1">
         <v>45205</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1584,7 +1573,6 @@
       <c r="C21" s="1">
         <v>45209</v>
       </c>
-      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1596,7 +1584,6 @@
       <c r="C22" s="1">
         <v>45212</v>
       </c>
-      <c r="D22" s="3"/>
       <c r="E22" t="s">
         <v>39</v>
       </c>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1DEFC-A6A6-4890-81BA-5AFC9BB2E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69692871-0AA2-4FD0-AA58-8E4525B12E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="536" sheetId="2" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8144DEB0-8C38-452D-8D42-359E137E414A}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,13 +958,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1">
         <v>45250</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
         <v>45257</v>
@@ -981,7 +981,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -989,13 +989,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1">
         <v>45259</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>45264</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/536CourseSchedule.xlsx
+++ b/536CourseSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69692871-0AA2-4FD0-AA58-8E4525B12E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDB982-3C58-4012-BDF3-514B023C0BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="536" sheetId="2" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
